--- a/Configuration/PurchaseData.xlsx
+++ b/Configuration/PurchaseData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1EB2F2EE-1361-4AF6-9AE4-F2D5EED6B23A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0C911071-60FD-4FB4-B733-D0EC2B4576BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="5565" firstSheet="8" activeTab="18" xr2:uid="{286F2E27-2542-46F5-8037-AA5FC15C9BA2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="5595" firstSheet="2" activeTab="5" xr2:uid="{286F2E27-2542-46F5-8037-AA5FC15C9BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="MaterialBuyer_List" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="UnpaidGRN_List" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S16"/>
+  <oleSize ref="A1:W16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -652,7 +652,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113EFFEE-43F4-4470-A95D-E8DB367520A9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -807,7 +807,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +941,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213D3F25-3EE9-4D77-AEA0-46693DDE3521}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
